--- a/nilai/Rekap_Nilai_VII.xlsx
+++ b/nilai/Rekap_Nilai_VII.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR30"/>
+  <dimension ref="A1:AY30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,17 +521,17 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Pendidikan Kewarganegaraan_Sikap</t>
+          <t>Pendidikan Kewargaraan_Sikap</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Pendidikan Kewarganegaraan_Keterampilan</t>
+          <t>Pendidikan Kewargaraan_Keterampilan</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Pendidikan Kewarganegaraan_Pengetahuan</t>
+          <t>Pendidikan Kewargaraan_Pengetahuan</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -552,102 +551,137 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Seni Budaya dan Keterampilan_Sikap</t>
+          <t>Seni Budaya_Sikap</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Seni Budaya dan Keterampilan_Keterampilan</t>
+          <t>Seni Budaya_Keterampilan</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Seni Budaya dan Keterampilan_Pengetahuan</t>
+          <t>Seni Budaya_Pengetahuan</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>Prakarya_Sikap</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Prakarya_Keterampilan</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Prakarya_Pengetahuan</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>Bahasa Sunda_Sikap</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Bahasa Sunda_Keterampilan</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Bahasa Sunda_Pengetahuan</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Penjaskes_Sikap</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Penjaskes_Keterampilan</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Penjaskes_Pengetahuan</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Akhlak Lil Banen_Sikap</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Akhlak Lil Banen_Keterampilan</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Akhlak Lil Banen_Pengetahuan</t>
-        </is>
-      </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
+          <t>TIK_Sikap</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>TIK_Keterampilan</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>TIK_Pengetahuan</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>Tahfidz_Sikap</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Tahfidz_Keterampilan</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Tahfidz_Pengetahuan</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Personal Development_Sikap</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Personal Development_Keterampilan</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Personal Development_Pengetahuan</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Rata_rata</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Predikat</t>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Sikap_Avg</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Sikap_Pred</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Pengetahuan_Avg</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Pengetahuan_Pred</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Keterampilan_Avg</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Keterampilan_Pred</t>
         </is>
       </c>
     </row>
@@ -663,18 +697,14 @@
           <t>Agus Ahmad</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>62.33333333333334</v>
       </c>
       <c r="F2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -682,9 +712,15 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="O2" t="n">
+        <v>62.75</v>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
@@ -712,12 +748,31 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="AV2" t="n">
+        <v>66.375</v>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Cukup</t>
+        </is>
+      </c>
+      <c r="AX2" t="n">
+        <v>67.83333333333334</v>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Cukup</t>
         </is>
       </c>
     </row>
@@ -733,18 +788,14 @@
           <t>Ajat Wahyudin</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>69</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -752,9 +803,15 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>63.33333333333334</v>
+      </c>
+      <c r="O3" t="n">
+        <v>65.75</v>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -782,12 +839,31 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="AV3" t="n">
+        <v>66.375</v>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Cukup</t>
+        </is>
+      </c>
+      <c r="AX3" t="n">
+        <v>66.16666666666667</v>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Cukup</t>
         </is>
       </c>
     </row>
@@ -803,18 +879,14 @@
           <t>Angga Maulana</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>73.33333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>80</v>
+        <v>77.75</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -822,9 +894,15 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>79.66666666666667</v>
+      </c>
+      <c r="O4" t="n">
+        <v>61.5</v>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -852,12 +930,31 @@
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AV4" t="n">
+        <v>69.625</v>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Cukup</t>
+        </is>
+      </c>
+      <c r="AX4" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Baik</t>
         </is>
       </c>
     </row>
@@ -873,18 +970,14 @@
           <t>Arifki</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>71</v>
       </c>
       <c r="F5" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -892,9 +985,15 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>85</v>
+      </c>
+      <c r="O5" t="n">
+        <v>72.75</v>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -922,12 +1021,31 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AV5" t="n">
+        <v>77.375</v>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX5" t="n">
+        <v>78</v>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Baik</t>
         </is>
       </c>
     </row>
@@ -943,18 +1061,14 @@
           <t>Ayu Anggraeni</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>86.33333333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>80</v>
+        <v>81.25</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -962,9 +1076,15 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>80</v>
+      </c>
+      <c r="O6" t="n">
+        <v>65.25</v>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -992,10 +1112,29 @@
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AV6" t="n">
+        <v>73.25</v>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX6" t="n">
+        <v>83.16666666666666</v>
+      </c>
+      <c r="AY6" t="inlineStr">
         <is>
           <t>Amat Baik</t>
         </is>
@@ -1013,18 +1152,14 @@
           <t>Candra Aditya</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>71.33333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -1032,9 +1167,15 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>67.66666666666667</v>
+      </c>
+      <c r="O7" t="n">
+        <v>68</v>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -1062,12 +1203,31 @@
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="AV7" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Cukup</t>
+        </is>
+      </c>
+      <c r="AX7" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Cukup</t>
         </is>
       </c>
     </row>
@@ -1083,18 +1243,14 @@
           <t>Cucu Permana</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>63.66666666666666</v>
       </c>
       <c r="F8" t="n">
-        <v>80</v>
+        <v>78.25</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -1102,9 +1258,15 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>81.66666666666667</v>
+      </c>
+      <c r="O8" t="n">
+        <v>64.25</v>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
@@ -1132,12 +1294,31 @@
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="AV8" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX8" t="n">
+        <v>72.66666666666666</v>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>Baik</t>
         </is>
       </c>
     </row>
@@ -1153,18 +1334,14 @@
           <t>Dani Hidayat</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>59.66666666666666</v>
       </c>
       <c r="F9" t="n">
-        <v>80</v>
+        <v>82.5</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -1172,9 +1349,15 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="O9" t="n">
+        <v>71</v>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1202,12 +1385,31 @@
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="AV9" t="n">
+        <v>76.75</v>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX9" t="n">
+        <v>68.16666666666666</v>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Cukup</t>
         </is>
       </c>
     </row>
@@ -1223,18 +1425,14 @@
           <t>Deden Ali Zaelani</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>73.33333333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>80</v>
+        <v>81.25</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -1242,9 +1440,15 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>71</v>
+      </c>
+      <c r="O10" t="n">
+        <v>79</v>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
@@ -1272,12 +1476,31 @@
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="AV10" t="n">
+        <v>80.125</v>
+      </c>
+      <c r="AW10" t="inlineStr">
         <is>
           <t>Amat Baik</t>
+        </is>
+      </c>
+      <c r="AX10" t="n">
+        <v>72.16666666666666</v>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Baik</t>
         </is>
       </c>
     </row>
@@ -1293,18 +1516,14 @@
           <t>Depi</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>81</v>
       </c>
       <c r="F11" t="n">
-        <v>80</v>
+        <v>68.5</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -1312,9 +1531,15 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>70</v>
+      </c>
+      <c r="O11" t="n">
+        <v>75</v>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -1342,12 +1567,31 @@
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AV11" t="n">
+        <v>71.75</v>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX11" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Baik</t>
         </is>
       </c>
     </row>
@@ -1363,18 +1607,14 @@
           <t>Elsa Silviani</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>63.66666666666666</v>
       </c>
       <c r="F12" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -1382,9 +1622,15 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>82</v>
+      </c>
+      <c r="O12" t="n">
+        <v>68.25</v>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
@@ -1412,12 +1658,31 @@
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AV12" t="n">
+        <v>72.125</v>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX12" t="n">
+        <v>72.83333333333333</v>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Baik</t>
         </is>
       </c>
     </row>
@@ -1433,18 +1698,14 @@
           <t>Hoerul Anwar</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>90</v>
       </c>
       <c r="F13" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -1452,9 +1713,15 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>72.66666666666667</v>
+      </c>
+      <c r="O13" t="n">
+        <v>74.75</v>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
@@ -1482,10 +1749,29 @@
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AV13" t="n">
+        <v>75.375</v>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX13" t="n">
+        <v>81.33333333333334</v>
+      </c>
+      <c r="AY13" t="inlineStr">
         <is>
           <t>Amat Baik</t>
         </is>
@@ -1503,18 +1789,14 @@
           <t>Ikhsan Arifin</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>76.66666666666667</v>
       </c>
       <c r="F14" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -1522,9 +1804,15 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>62</v>
+      </c>
+      <c r="O14" t="n">
+        <v>81.5</v>
+      </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
@@ -1552,12 +1840,31 @@
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AV14" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX14" t="n">
+        <v>69.33333333333334</v>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Cukup</t>
         </is>
       </c>
     </row>
@@ -1573,18 +1880,14 @@
           <t>Irvan Mardiansah</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>74</v>
       </c>
       <c r="F15" t="n">
-        <v>80</v>
+        <v>77.5</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -1592,9 +1895,15 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="n">
+        <v>69</v>
+      </c>
+      <c r="O15" t="n">
+        <v>64</v>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -1622,12 +1931,31 @@
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AV15" t="n">
+        <v>70.75</v>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX15" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Baik</t>
         </is>
       </c>
     </row>
@@ -1643,18 +1971,14 @@
           <t>Kanila Nopita</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>83.66666666666667</v>
       </c>
       <c r="F16" t="n">
-        <v>80</v>
+        <v>62.5</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -1662,9 +1986,15 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>69</v>
+      </c>
+      <c r="O16" t="n">
+        <v>79.5</v>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
@@ -1692,12 +2022,31 @@
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AV16" t="n">
+        <v>71</v>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX16" t="n">
+        <v>76.33333333333334</v>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Baik</t>
         </is>
       </c>
     </row>
@@ -1713,18 +2062,14 @@
           <t>Moh. Nur Asoka</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>73.66666666666667</v>
       </c>
       <c r="F17" t="n">
-        <v>80</v>
+        <v>73.75</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1732,9 +2077,15 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>73.66666666666667</v>
+      </c>
+      <c r="O17" t="n">
+        <v>80.75</v>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -1762,12 +2113,31 @@
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AV17" t="n">
+        <v>77.25</v>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX17" t="n">
+        <v>73.66666666666667</v>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>Baik</t>
         </is>
       </c>
     </row>
@@ -1783,18 +2153,14 @@
           <t>Muhamad Dimas Dwi Arifin</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>80.66666666666667</v>
       </c>
       <c r="F18" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1802,9 +2168,15 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>83.66666666666667</v>
+      </c>
+      <c r="O18" t="n">
+        <v>67.5</v>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -1832,10 +2204,29 @@
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>Cukup</t>
+        </is>
+      </c>
+      <c r="AV18" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX18" t="n">
+        <v>82.16666666666667</v>
+      </c>
+      <c r="AY18" t="inlineStr">
         <is>
           <t>Amat Baik</t>
         </is>
@@ -1853,18 +2244,14 @@
           <t>Muhamad Krisna Mustopa</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>72.33333333333333</v>
       </c>
       <c r="F19" t="n">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1872,9 +2259,15 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="n">
+        <v>86.33333333333333</v>
+      </c>
+      <c r="O19" t="n">
+        <v>76</v>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
@@ -1902,12 +2295,31 @@
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR19" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="AV19" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Cukup</t>
+        </is>
+      </c>
+      <c r="AX19" t="n">
+        <v>79.33333333333333</v>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>Baik</t>
         </is>
       </c>
     </row>
@@ -1923,18 +2335,14 @@
           <t>Opik Saepul Rohman</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>84</v>
       </c>
       <c r="F20" t="n">
-        <v>80</v>
+        <v>62.5</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1942,9 +2350,15 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>89</v>
+      </c>
+      <c r="O20" t="n">
+        <v>86.25</v>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
@@ -1972,10 +2386,29 @@
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="AV20" t="n">
+        <v>74.375</v>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX20" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="AY20" t="inlineStr">
         <is>
           <t>Amat Baik</t>
         </is>
@@ -1993,18 +2426,14 @@
           <t>Pitri Yanti</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>71.66666666666667</v>
       </c>
       <c r="F21" t="n">
-        <v>80</v>
+        <v>84.75</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -2012,9 +2441,15 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>84.66666666666667</v>
+      </c>
+      <c r="O21" t="n">
+        <v>62</v>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
@@ -2042,12 +2477,31 @@
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="AV21" t="n">
+        <v>73.375</v>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX21" t="n">
+        <v>78.16666666666667</v>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>Baik</t>
         </is>
       </c>
     </row>
@@ -2063,18 +2517,14 @@
           <t>Rahma Tri Wulan</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>64</v>
       </c>
       <c r="F22" t="n">
-        <v>80</v>
+        <v>74.75</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -2082,9 +2532,15 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>70.33333333333333</v>
+      </c>
+      <c r="O22" t="n">
+        <v>70</v>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
@@ -2112,12 +2568,31 @@
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AV22" t="n">
+        <v>72.375</v>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX22" t="n">
+        <v>67.16666666666666</v>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Cukup</t>
         </is>
       </c>
     </row>
@@ -2133,18 +2608,14 @@
           <t>Rangga Saputra</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>81.33333333333333</v>
       </c>
       <c r="F23" t="n">
-        <v>80</v>
+        <v>74.5</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -2152,9 +2623,15 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>65.66666666666667</v>
+      </c>
+      <c r="O23" t="n">
+        <v>84.5</v>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
@@ -2182,12 +2659,31 @@
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR23" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>Cukup</t>
+        </is>
+      </c>
+      <c r="AV23" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX23" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>Baik</t>
         </is>
       </c>
     </row>
@@ -2203,18 +2699,14 @@
           <t>Reva Nur Afriani</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>77.33333333333333</v>
       </c>
       <c r="F24" t="n">
-        <v>80</v>
+        <v>83.25</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -2222,9 +2714,15 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="n">
+        <v>65.33333333333333</v>
+      </c>
+      <c r="O24" t="n">
+        <v>86.75</v>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
@@ -2252,12 +2750,31 @@
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="AV24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AW24" t="inlineStr">
         <is>
           <t>Amat Baik</t>
+        </is>
+      </c>
+      <c r="AX24" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>Baik</t>
         </is>
       </c>
     </row>
@@ -2273,18 +2790,14 @@
           <t>Rima Rianti</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>73.66666666666667</v>
       </c>
       <c r="F25" t="n">
-        <v>80</v>
+        <v>73.75</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -2292,9 +2805,15 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="O25" t="n">
+        <v>64</v>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
@@ -2322,12 +2841,31 @@
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR25" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AV25" t="n">
+        <v>68.875</v>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Cukup</t>
+        </is>
+      </c>
+      <c r="AX25" t="n">
+        <v>75.16666666666667</v>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>Baik</t>
         </is>
       </c>
     </row>
@@ -2343,18 +2881,14 @@
           <t>Rizky Nurhakim</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>74</v>
       </c>
       <c r="F26" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -2362,9 +2896,15 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>73</v>
+      </c>
+      <c r="O26" t="n">
+        <v>76.5</v>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
@@ -2392,12 +2932,31 @@
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR26" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU26" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AV26" t="n">
+        <v>79.25</v>
+      </c>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX26" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>Baik</t>
         </is>
       </c>
     </row>
@@ -2413,18 +2972,14 @@
           <t>Salmah Nurjanah</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>78</v>
       </c>
       <c r="F27" t="n">
-        <v>80</v>
+        <v>64.25</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -2432,9 +2987,15 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>84.33333333333333</v>
+      </c>
+      <c r="O27" t="n">
+        <v>88</v>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
@@ -2462,10 +3023,29 @@
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AV27" t="n">
+        <v>76.125</v>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX27" t="n">
+        <v>81.16666666666666</v>
+      </c>
+      <c r="AY27" t="inlineStr">
         <is>
           <t>Amat Baik</t>
         </is>
@@ -2483,18 +3063,14 @@
           <t>Sipa Nurazkia</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>60</v>
       </c>
       <c r="F28" t="n">
-        <v>80</v>
+        <v>70.5</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -2502,9 +3078,15 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>65</v>
+      </c>
+      <c r="O28" t="n">
+        <v>80</v>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2532,12 +3114,31 @@
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR28" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU28" t="inlineStr">
+        <is>
+          <t>Cukup</t>
+        </is>
+      </c>
+      <c r="AV28" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX28" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>Cukup</t>
         </is>
       </c>
     </row>
@@ -2553,18 +3154,14 @@
           <t>Yosep Sulaeman</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>88.33333333333333</v>
       </c>
       <c r="F29" t="n">
-        <v>80</v>
+        <v>68.75</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -2572,9 +3169,15 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="n">
+        <v>65</v>
+      </c>
+      <c r="O29" t="n">
+        <v>71.75</v>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
@@ -2602,12 +3205,31 @@
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR29" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU29" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AV29" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AX29" t="n">
+        <v>76.66666666666666</v>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>Baik</t>
         </is>
       </c>
     </row>
@@ -2623,18 +3245,14 @@
           <t>Zakiya Zahra Kamila</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>72.33333333333333</v>
       </c>
       <c r="F30" t="n">
-        <v>80</v>
+        <v>81.25</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -2642,9 +3260,15 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="n">
+        <v>76.33333333333333</v>
+      </c>
+      <c r="O30" t="n">
+        <v>80.25</v>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
@@ -2672,12 +3296,31 @@
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU30" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="AV30" t="n">
+        <v>80.75</v>
+      </c>
+      <c r="AW30" t="inlineStr">
         <is>
           <t>Amat Baik</t>
+        </is>
+      </c>
+      <c r="AX30" t="n">
+        <v>74.33333333333333</v>
+      </c>
+      <c r="AY30" t="inlineStr">
+        <is>
+          <t>Baik</t>
         </is>
       </c>
     </row>

--- a/nilai/Rekap_Nilai_VII.xlsx
+++ b/nilai/Rekap_Nilai_VII.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY30"/>
+  <dimension ref="A1:AY31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,21 +690,21 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>72100585</v>
+        <v>212207099</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Agus Ahmad</t>
+          <t>Alip Usman</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>62.33333333333334</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -712,15 +712,9 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="n">
-        <v>73.33333333333333</v>
-      </c>
-      <c r="O2" t="n">
-        <v>62.75</v>
-      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
@@ -752,27 +746,27 @@
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>Sangat Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV2" t="n">
-        <v>66.375</v>
+        <v>83</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Cukup</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX2" t="n">
-        <v>67.83333333333334</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>Cukup</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -781,21 +775,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>78330643</v>
+        <v>212207100</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ajat Wahyudin</t>
+          <t>Asep Komara</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>69</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -803,15 +797,9 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="n">
-        <v>63.33333333333334</v>
-      </c>
-      <c r="O3" t="n">
-        <v>65.75</v>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -843,27 +831,27 @@
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>Sangat Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV3" t="n">
-        <v>66.375</v>
+        <v>83</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Cukup</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX3" t="n">
-        <v>66.16666666666667</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>Cukup</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -872,21 +860,21 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>78393929</v>
+        <v>212207101</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Angga Maulana</t>
+          <t>Dika Permana</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>73.33333333333333</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>77.75</v>
+        <v>83</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -894,15 +882,9 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="n">
-        <v>79.66666666666667</v>
-      </c>
-      <c r="O4" t="n">
-        <v>61.5</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -934,27 +916,27 @@
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV4" t="n">
-        <v>69.625</v>
+        <v>83</v>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Cukup</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX4" t="n">
-        <v>76.5</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -963,21 +945,21 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>77075358</v>
+        <v>212207102</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Arifki</t>
+          <t>Gema Azuayini Ginanjar</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>71</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -985,15 +967,9 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>85</v>
-      </c>
-      <c r="O5" t="n">
-        <v>72.75</v>
-      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -1025,27 +1001,27 @@
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV5" t="n">
-        <v>77.375</v>
+        <v>83</v>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX5" t="n">
-        <v>78</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -1054,21 +1030,21 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71091634</v>
+        <v>212207103</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ayu Anggraeni</t>
+          <t>Indah Sondari</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>86.33333333333333</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>81.25</v>
+        <v>83</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -1076,15 +1052,9 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="n">
-        <v>80</v>
-      </c>
-      <c r="O6" t="n">
-        <v>65.25</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -1116,23 +1086,23 @@
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV6" t="n">
-        <v>73.25</v>
+        <v>83</v>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX6" t="n">
-        <v>83.16666666666666</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
@@ -1145,21 +1115,21 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>86861553</v>
+        <v>212207104</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Candra Aditya</t>
+          <t>Isma Dwi Yanti</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>71.33333333333333</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -1167,15 +1137,9 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="n">
-        <v>67.66666666666667</v>
-      </c>
-      <c r="O7" t="n">
-        <v>68</v>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -1207,27 +1171,27 @@
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>Sangat Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV7" t="n">
-        <v>68.5</v>
+        <v>83</v>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Cukup</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX7" t="n">
-        <v>69.5</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>Cukup</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -1236,21 +1200,21 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74147706</v>
+        <v>212207105</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cucu Permana</t>
+          <t>Mandala</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>63.66666666666666</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>78.25</v>
+        <v>83</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -1258,15 +1222,9 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="n">
-        <v>81.66666666666667</v>
-      </c>
-      <c r="O8" t="n">
-        <v>64.25</v>
-      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
@@ -1298,27 +1256,27 @@
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>Sangat Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV8" t="n">
-        <v>71.25</v>
+        <v>83</v>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX8" t="n">
-        <v>72.66666666666666</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -1327,21 +1285,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>73453000</v>
+        <v>212207106</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dani Hidayat</t>
+          <t>Muhamad Padli</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>59.66666666666666</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>82.5</v>
+        <v>83</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -1349,15 +1307,9 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="n">
-        <v>76.66666666666667</v>
-      </c>
-      <c r="O9" t="n">
-        <v>71</v>
-      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1389,27 +1341,27 @@
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>Sangat Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV9" t="n">
-        <v>76.75</v>
+        <v>83</v>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX9" t="n">
-        <v>68.16666666666666</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>Cukup</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -1418,21 +1370,21 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78384162</v>
+        <v>212207107</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Deden Ali Zaelani</t>
+          <t>Muhammad Irsyadun Aufa</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>73.33333333333333</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>81.25</v>
+        <v>83</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -1440,15 +1392,9 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="n">
-        <v>71</v>
-      </c>
-      <c r="O10" t="n">
-        <v>79</v>
-      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
@@ -1480,15 +1426,15 @@
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>Sangat Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV10" t="n">
-        <v>80.125</v>
+        <v>83</v>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
@@ -1496,11 +1442,11 @@
         </is>
       </c>
       <c r="AX10" t="n">
-        <v>72.16666666666666</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -1509,21 +1455,21 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88237290</v>
+        <v>212207108</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Depi</t>
+          <t>Muhammad Rafif Ihsan Muttaqin</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>81</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>68.5</v>
+        <v>83</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -1531,15 +1477,9 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>70</v>
-      </c>
-      <c r="O11" t="n">
-        <v>75</v>
-      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -1571,27 +1511,27 @@
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV11" t="n">
-        <v>71.75</v>
+        <v>83</v>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX11" t="n">
-        <v>75.5</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -1600,21 +1540,21 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84615911</v>
+        <v>212207109</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Elsa Silviani</t>
+          <t>Muhammad Reffan Fathurrahman</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>63.66666666666666</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -1622,15 +1562,9 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="n">
-        <v>82</v>
-      </c>
-      <c r="O12" t="n">
-        <v>68.25</v>
-      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
@@ -1662,27 +1596,27 @@
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV12" t="n">
-        <v>72.125</v>
+        <v>83</v>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX12" t="n">
-        <v>72.83333333333333</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -1691,21 +1625,21 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>86927277</v>
+        <v>212207110</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hoerul Anwar</t>
+          <t>Muhammad Tsabit Imani</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>90</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F13" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -1713,15 +1647,9 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="n">
-        <v>72.66666666666667</v>
-      </c>
-      <c r="O13" t="n">
-        <v>74.75</v>
-      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
@@ -1753,23 +1681,23 @@
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV13" t="n">
-        <v>75.375</v>
+        <v>83</v>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX13" t="n">
-        <v>81.33333333333334</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
@@ -1782,21 +1710,21 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>87741551</v>
+        <v>212207111</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ikhsan Arifin</t>
+          <t>Mutia Azahra</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>76.66666666666667</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -1804,15 +1732,9 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" t="n">
-        <v>62</v>
-      </c>
-      <c r="O14" t="n">
-        <v>81.5</v>
-      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
@@ -1844,27 +1766,27 @@
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV14" t="n">
-        <v>75.25</v>
+        <v>83</v>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX14" t="n">
-        <v>69.33333333333334</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>Cukup</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -1873,21 +1795,21 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>76834365</v>
+        <v>212207112</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Irvan Mardiansah</t>
+          <t>Nazrey Ilham Mulyana</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>74</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F15" t="n">
-        <v>77.5</v>
+        <v>83</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -1895,15 +1817,9 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="n">
-        <v>69</v>
-      </c>
-      <c r="O15" t="n">
-        <v>64</v>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -1935,27 +1851,27 @@
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV15" t="n">
-        <v>70.75</v>
+        <v>83</v>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX15" t="n">
-        <v>71.5</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -1964,21 +1880,21 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>74312312</v>
+        <v>212207113</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kanila Nopita</t>
+          <t>Nur Yanti</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>83.66666666666667</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F16" t="n">
-        <v>62.5</v>
+        <v>83</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -1986,15 +1902,9 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="n">
-        <v>69</v>
-      </c>
-      <c r="O16" t="n">
-        <v>79.5</v>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
@@ -2026,27 +1936,27 @@
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV16" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX16" t="n">
-        <v>76.33333333333334</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -2055,21 +1965,21 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>88344634</v>
+        <v>212207114</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Moh. Nur Asoka</t>
+          <t>Radittia Putra Amarulloh</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>73.66666666666667</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F17" t="n">
-        <v>73.75</v>
+        <v>83</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -2077,15 +1987,9 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="n">
-        <v>73.66666666666667</v>
-      </c>
-      <c r="O17" t="n">
-        <v>80.75</v>
-      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -2117,27 +2021,27 @@
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV17" t="n">
-        <v>77.25</v>
+        <v>83</v>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX17" t="n">
-        <v>73.66666666666667</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -2146,21 +2050,21 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>72836838</v>
+        <v>212207115</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Muhamad Dimas Dwi Arifin</t>
+          <t>Reihan Wijaya</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>80.66666666666667</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F18" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -2168,15 +2072,9 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="n">
-        <v>83.66666666666667</v>
-      </c>
-      <c r="O18" t="n">
-        <v>67.5</v>
-      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -2216,15 +2114,15 @@
         </is>
       </c>
       <c r="AV18" t="n">
-        <v>70.25</v>
+        <v>83</v>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX18" t="n">
-        <v>82.16666666666667</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
@@ -2237,21 +2135,21 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>64823034</v>
+        <v>212207116</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Muhamad Krisna Mustopa</t>
+          <t>Repi Herdian</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>72.33333333333333</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F19" t="n">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -2259,15 +2157,9 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="n">
-        <v>86.33333333333333</v>
-      </c>
-      <c r="O19" t="n">
-        <v>76</v>
-      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
@@ -2299,27 +2191,27 @@
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
       <c r="AT19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>Sangat Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV19" t="n">
-        <v>69.5</v>
+        <v>83</v>
       </c>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Cukup</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX19" t="n">
-        <v>79.33333333333333</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY19" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -2328,21 +2220,21 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>74725113</v>
+        <v>212207117</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Opik Saepul Rohman</t>
+          <t>Rika Parida</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>84</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F20" t="n">
-        <v>62.5</v>
+        <v>83</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -2350,15 +2242,9 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="n">
-        <v>89</v>
-      </c>
-      <c r="O20" t="n">
-        <v>86.25</v>
-      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
@@ -2390,23 +2276,23 @@
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>Sangat Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV20" t="n">
-        <v>74.375</v>
+        <v>83</v>
       </c>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX20" t="n">
-        <v>86.5</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY20" t="inlineStr">
         <is>
@@ -2419,21 +2305,21 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>85126224</v>
+        <v>212207118</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Pitri Yanti</t>
+          <t>Rina Rahmayanti</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>71.66666666666667</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F21" t="n">
-        <v>84.75</v>
+        <v>83</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -2441,15 +2327,9 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="n">
-        <v>84.66666666666667</v>
-      </c>
-      <c r="O21" t="n">
-        <v>62</v>
-      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
@@ -2481,27 +2361,27 @@
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
       <c r="AT21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>Sangat Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV21" t="n">
-        <v>73.375</v>
+        <v>83</v>
       </c>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX21" t="n">
-        <v>78.16666666666667</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY21" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -2510,21 +2390,21 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>73326310</v>
+        <v>212207119</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Rahma Tri Wulan</t>
+          <t>Rohmana</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>64</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F22" t="n">
-        <v>74.75</v>
+        <v>83</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -2532,15 +2412,9 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="n">
-        <v>70.33333333333333</v>
-      </c>
-      <c r="O22" t="n">
-        <v>70</v>
-      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
@@ -2572,27 +2446,27 @@
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV22" t="n">
-        <v>72.375</v>
+        <v>83</v>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX22" t="n">
-        <v>67.16666666666666</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>Cukup</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -2601,21 +2475,21 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>71500266</v>
+        <v>212207120</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Rangga Saputra</t>
+          <t>Rosmawati</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>81.33333333333333</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F23" t="n">
-        <v>74.5</v>
+        <v>83</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -2623,15 +2497,9 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>2</v>
-      </c>
-      <c r="N23" t="n">
-        <v>65.66666666666667</v>
-      </c>
-      <c r="O23" t="n">
-        <v>84.5</v>
-      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
@@ -2671,19 +2539,19 @@
         </is>
       </c>
       <c r="AV23" t="n">
-        <v>79.5</v>
+        <v>83</v>
       </c>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX23" t="n">
-        <v>73.5</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY23" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -2692,21 +2560,21 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>71482235</v>
+        <v>212207122</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Reva Nur Afriani</t>
+          <t>Salsabila Meida</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>77.33333333333333</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F24" t="n">
-        <v>83.25</v>
+        <v>83</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -2714,15 +2582,9 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="n">
-        <v>65.33333333333333</v>
-      </c>
-      <c r="O24" t="n">
-        <v>86.75</v>
-      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
@@ -2754,15 +2616,15 @@
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
       <c r="AT24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>Sangat Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV24" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AW24" t="inlineStr">
         <is>
@@ -2770,11 +2632,11 @@
         </is>
       </c>
       <c r="AX24" t="n">
-        <v>71.33333333333333</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY24" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -2783,21 +2645,21 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>82967673</v>
+        <v>212207121</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Rima Rianti</t>
+          <t>Saskia Allipa</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>73.66666666666667</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F25" t="n">
-        <v>73.75</v>
+        <v>83</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -2805,15 +2667,9 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="n">
-        <v>76.66666666666667</v>
-      </c>
-      <c r="O25" t="n">
-        <v>64</v>
-      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
@@ -2845,27 +2701,27 @@
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV25" t="n">
-        <v>68.875</v>
+        <v>83</v>
       </c>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Cukup</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX25" t="n">
-        <v>75.16666666666667</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY25" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -2874,21 +2730,21 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>79246359</v>
+        <v>212207123</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Rizky Nurhakim</t>
+          <t>Siti Nur Amalah</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>74</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F26" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -2896,15 +2752,9 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" t="n">
-        <v>73</v>
-      </c>
-      <c r="O26" t="n">
-        <v>76.5</v>
-      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
@@ -2936,27 +2786,27 @@
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV26" t="n">
-        <v>79.25</v>
+        <v>83</v>
       </c>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX26" t="n">
-        <v>73.5</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY26" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -2965,21 +2815,21 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>89811143</v>
+        <v>212207124</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Salmah Nurjanah</t>
+          <t>Tini Nur Aeni</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>78</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F27" t="n">
-        <v>64.25</v>
+        <v>83</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -2987,15 +2837,9 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>3</v>
-      </c>
-      <c r="N27" t="n">
-        <v>84.33333333333333</v>
-      </c>
-      <c r="O27" t="n">
-        <v>88</v>
-      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
@@ -3027,23 +2871,23 @@
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
       <c r="AT27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV27" t="n">
-        <v>76.125</v>
+        <v>83</v>
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX27" t="n">
-        <v>81.16666666666666</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
@@ -3056,21 +2900,21 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>85953082</v>
+        <v>212207125</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sipa Nurazkia</t>
+          <t>Vicril Nurmulki</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>60</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F28" t="n">
-        <v>70.5</v>
+        <v>83</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -3078,15 +2922,9 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>2</v>
-      </c>
-      <c r="N28" t="n">
-        <v>65</v>
-      </c>
-      <c r="O28" t="n">
-        <v>80</v>
-      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -3126,19 +2964,19 @@
         </is>
       </c>
       <c r="AV28" t="n">
-        <v>75.25</v>
+        <v>83</v>
       </c>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX28" t="n">
-        <v>62.5</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY28" t="inlineStr">
         <is>
-          <t>Cukup</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -3147,21 +2985,21 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>74747566</v>
+        <v>212207126</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Yosep Sulaeman</t>
+          <t>Wanda</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>88.33333333333333</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F29" t="n">
-        <v>68.75</v>
+        <v>83</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -3169,15 +3007,9 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="n">
-        <v>65</v>
-      </c>
-      <c r="O29" t="n">
-        <v>71.75</v>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
@@ -3209,27 +3041,27 @@
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
       <c r="AT29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV29" t="n">
-        <v>70.25</v>
+        <v>83</v>
       </c>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
       <c r="AX29" t="n">
-        <v>76.66666666666666</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY29" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>
@@ -3238,21 +3070,21 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>71778434</v>
+        <v>212207127</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Zakiya Zahra Kamila</t>
+          <t>Wandi</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>72.33333333333333</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F30" t="n">
-        <v>81.25</v>
+        <v>83</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -3260,15 +3092,9 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" t="n">
-        <v>76.33333333333333</v>
-      </c>
-      <c r="O30" t="n">
-        <v>80.25</v>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
@@ -3300,15 +3126,15 @@
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
       <c r="AT30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>Sangat Baik</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AV30" t="n">
-        <v>80.75</v>
+        <v>83</v>
       </c>
       <c r="AW30" t="inlineStr">
         <is>
@@ -3316,11 +3142,96 @@
         </is>
       </c>
       <c r="AX30" t="n">
-        <v>74.33333333333333</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="AY30" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Amat Baik</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>212207128</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Yan Yan Sopian</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>90.33333333333333</v>
+      </c>
+      <c r="F31" t="n">
+        <v>83</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>Cukup</t>
+        </is>
+      </c>
+      <c r="AV31" t="n">
+        <v>83</v>
+      </c>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Amat Baik</t>
+        </is>
+      </c>
+      <c r="AX31" t="n">
+        <v>90.33333333333333</v>
+      </c>
+      <c r="AY31" t="inlineStr">
+        <is>
+          <t>Amat Baik</t>
         </is>
       </c>
     </row>

--- a/nilai/Rekap_Nilai_VII.xlsx
+++ b/nilai/Rekap_Nilai_VII.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY31"/>
+  <dimension ref="A1:BN31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,17 +521,17 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Pendidikan Kewargaraan_Sikap</t>
+          <t>Pendidikan Kewarganegaraan_Sikap</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Pendidikan Kewargaraan_Keterampilan</t>
+          <t>Pendidikan Kewarganegaraan_Keterampilan</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Pendidikan Kewargaraan_Pengetahuan</t>
+          <t>Pendidikan Kewarganegaraan_Pengetahuan</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -596,17 +596,17 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Penjaskes_Sikap</t>
+          <t>PJOK_Sikap</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Penjaskes_Keterampilan</t>
+          <t>PJOK_Keterampilan</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Penjaskes_Pengetahuan</t>
+          <t>PJOK_Pengetahuan</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
@@ -641,45 +641,120 @@
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
+          <t>Bahasa Arab_Sikap</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Bahasa Arab_Keterampilan</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Bahasa Arab_Pengetahuan</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Hadits_Sikap</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Hadits_Keterampilan</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Hadits_Pengetahuan</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Aqidah_Sikap</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Aqidah_Keterampilan</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Aqidah_Pengetahuan</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Akhlak_Sikap</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Akhlak_Keterampilan</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Akhlak_Pengetahuan</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Fiqih_Sikap</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Fiqih_Keterampilan</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Fiqih_Pengetahuan</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
           <t>Personal Development_Sikap</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Personal Development_Keterampilan</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>Personal Development_Pengetahuan</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Sikap_Avg</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Sikap_Pred</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Pengetahuan_Avg</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Pengetahuan_Pred</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Keterampilan_Avg</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Keterampilan_Pred</t>
         </is>
@@ -698,75 +773,144 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>90.33333333333333</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>83</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>81.25</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>78.75</v>
+      </c>
+      <c r="I2" t="n">
+        <v>78.125</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>78</v>
+      </c>
+      <c r="O2" t="n">
+        <v>79.125</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>74.75</v>
+      </c>
+      <c r="R2" t="n">
+        <v>76.6875</v>
+      </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>79</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>79.25</v>
+      </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+      <c r="AH2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>89.33333333333333</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>80</v>
+      </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
+      <c r="AQ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>77.75</v>
+      </c>
       <c r="AT2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>81</v>
       </c>
       <c r="AV2" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80.75</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>79</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -783,75 +927,144 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>90.33333333333333</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>83</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+        <v>81.25</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>78.75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>77.1875</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>77.75</v>
+      </c>
+      <c r="O3" t="n">
+        <v>78.5625</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>74.75</v>
+      </c>
+      <c r="R3" t="n">
+        <v>76.875</v>
+      </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>4</v>
+      </c>
+      <c r="W3" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>79.25</v>
+      </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AH3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>89.33333333333333</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>80</v>
+      </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
+      <c r="AQ3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>78.875</v>
+      </c>
       <c r="AT3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>81</v>
       </c>
       <c r="AV3" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80.75</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>80</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>80.25</v>
+      </c>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -868,75 +1081,144 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>90.33333333333333</v>
+        <v>85</v>
       </c>
       <c r="F4" t="n">
-        <v>83</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+        <v>86.25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>77.75</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>76.75</v>
+      </c>
+      <c r="O4" t="n">
+        <v>79.125</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>77</v>
+      </c>
+      <c r="R4" t="n">
+        <v>79.25</v>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>4</v>
+      </c>
+      <c r="W4" t="n">
+        <v>79</v>
+      </c>
+      <c r="X4" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>80</v>
+      </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AH4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>88.66666666666667</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>80</v>
+      </c>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
+      <c r="AQ4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>81.25</v>
+      </c>
       <c r="AT4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>81</v>
       </c>
       <c r="AV4" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80.75</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>82.33333333333333</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>83.25</v>
+      </c>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -953,75 +1235,144 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>90.33333333333333</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>83</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+        <v>81.25</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>77.75</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>77</v>
+      </c>
+      <c r="O5" t="n">
+        <v>79.6875</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>77.25</v>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>81.5</v>
+      </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
+      <c r="AH5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>88.66666666666667</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>80</v>
+      </c>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
+      <c r="AQ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>80.875</v>
+      </c>
       <c r="AT5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>81</v>
       </c>
       <c r="AV5" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80.75</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>82</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>83.25</v>
+      </c>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -1038,75 +1389,144 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>90.33333333333333</v>
+        <v>89.66666666666667</v>
       </c>
       <c r="F6" t="n">
-        <v>83</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+        <v>90.75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>80</v>
+      </c>
+      <c r="I6" t="n">
+        <v>79.625</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>80.1875</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>77.8125</v>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
+      <c r="V6" t="n">
+        <v>4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>82</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>80.75</v>
+      </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
+      <c r="AH6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>84.33333333333333</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>80</v>
+      </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
+      <c r="AQ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>83.25</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>83.6875</v>
+      </c>
       <c r="AT6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>81.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW6" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>81.125</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4</v>
       </c>
       <c r="AX6" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>84.33333333333333</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -1123,75 +1543,144 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>90.33333333333333</v>
+        <v>85</v>
       </c>
       <c r="F7" t="n">
-        <v>83</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+        <v>86.25</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>77.75</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>82.0625</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>78.6875</v>
+      </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>4</v>
+      </c>
+      <c r="W7" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>82</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>80</v>
+      </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
+      <c r="AH7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>89.33333333333333</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>80</v>
+      </c>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
+      <c r="AQ7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>81.375</v>
+      </c>
       <c r="AT7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>84</v>
       </c>
       <c r="AV7" t="n">
         <v>83</v>
       </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+      <c r="AW7" t="n">
+        <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>82.66666666666667</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -1208,75 +1697,144 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>90.33333333333333</v>
+        <v>85</v>
       </c>
       <c r="F8" t="n">
-        <v>83</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+        <v>86.25</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>80.9375</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="O8" t="n">
+        <v>82.0625</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>77.25</v>
+      </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
+      <c r="V8" t="n">
+        <v>4</v>
+      </c>
+      <c r="W8" t="n">
+        <v>80</v>
+      </c>
+      <c r="X8" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>80</v>
+      </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
+      <c r="AH8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>89.33333333333333</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>80</v>
+      </c>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
+      <c r="AQ8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>74.25</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>81.75</v>
+      </c>
       <c r="AT8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>81</v>
       </c>
       <c r="AV8" t="n">
+        <v>81.875</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX8" t="n">
         <v>83</v>
       </c>
-      <c r="AW8" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
-      </c>
-      <c r="AX8" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AY8" t="n">
+        <v>83.25</v>
+      </c>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -1293,75 +1851,144 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>90.33333333333333</v>
+        <v>89.66666666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>83</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+        <v>90.75</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>80</v>
+      </c>
+      <c r="I9" t="n">
+        <v>78.6875</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>79.0625</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>79.25</v>
+      </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+      <c r="V9" t="n">
+        <v>4</v>
+      </c>
+      <c r="W9" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>84.625</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>82.375</v>
+      </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
+      <c r="AH9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>80</v>
+      </c>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
+      <c r="AQ9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>82.25</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>82.6875</v>
+      </c>
       <c r="AT9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU9" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>81</v>
       </c>
       <c r="AV9" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW9" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80.75</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>83.66666666666667</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>84</v>
+      </c>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -1378,75 +2005,144 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>90.33333333333333</v>
+        <v>80</v>
       </c>
       <c r="F10" t="n">
-        <v>83</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+        <v>81.25</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>78.75</v>
+      </c>
+      <c r="I10" t="n">
+        <v>78.6875</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>80</v>
+      </c>
+      <c r="O10" t="n">
+        <v>81.125</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>74.75</v>
+      </c>
+      <c r="R10" t="n">
+        <v>77.0625</v>
+      </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+      <c r="V10" t="n">
+        <v>4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>82</v>
+      </c>
+      <c r="X10" t="n">
+        <v>83.625</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>81.375</v>
+      </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
+      <c r="AH10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>89.33333333333333</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>80</v>
+      </c>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
+      <c r="AQ10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>82.25</v>
+      </c>
       <c r="AT10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>83.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW10" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>82.625</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>82.33333333333333</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -1463,75 +2159,144 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>90.33333333333333</v>
+        <v>89.66666666666667</v>
       </c>
       <c r="F11" t="n">
-        <v>83</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+        <v>90.75</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>80.9375</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>80</v>
+      </c>
+      <c r="O11" t="n">
+        <v>81.125</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>78.875</v>
+      </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>4</v>
+      </c>
+      <c r="W11" t="n">
+        <v>80</v>
+      </c>
+      <c r="X11" t="n">
+        <v>81.625</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>82.375</v>
+      </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
+      <c r="AH11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>89.33333333333333</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>80</v>
+      </c>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
+      <c r="AQ11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>80.375</v>
+      </c>
       <c r="AT11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU11" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>81</v>
       </c>
       <c r="AV11" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW11" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80.75</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>81.66666666666667</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>82.75</v>
+      </c>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -1548,75 +2313,144 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>90.33333333333333</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>83</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+        <v>81.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>78.75</v>
+      </c>
+      <c r="I12" t="n">
+        <v>80</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>79.8125</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>76.5</v>
+      </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
+      <c r="V12" t="n">
+        <v>4</v>
+      </c>
+      <c r="W12" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>84.625</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>83</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>82</v>
+      </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
+      <c r="AH12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>89.33333333333333</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>80</v>
+      </c>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
+      <c r="AQ12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>88.1875</v>
+      </c>
       <c r="AT12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU12" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>82.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW12" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>81.875</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY12" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>84</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>83.75</v>
+      </c>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -1633,75 +2467,144 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>90.33333333333333</v>
+        <v>80</v>
       </c>
       <c r="F13" t="n">
-        <v>83</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+        <v>81.25</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>78.6875</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>78.6875</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>75</v>
+      </c>
+      <c r="R13" t="n">
+        <v>75.9375</v>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
+      <c r="V13" t="n">
+        <v>4</v>
+      </c>
+      <c r="W13" t="n">
+        <v>80</v>
+      </c>
+      <c r="X13" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>83.125</v>
+      </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
+      <c r="AH13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>89.33333333333333</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>80</v>
+      </c>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
+      <c r="AQ13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>80.5625</v>
+      </c>
       <c r="AT13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU13" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>81</v>
       </c>
       <c r="AV13" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW13" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80.75</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4</v>
       </c>
       <c r="AX13" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>81.66666666666667</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -1718,75 +2621,144 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>90.33333333333333</v>
+        <v>89.66666666666667</v>
       </c>
       <c r="F14" t="n">
-        <v>83</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+        <v>90.75</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="I14" t="n">
+        <v>80</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>79.8125</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>77.4375</v>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
+      <c r="V14" t="n">
+        <v>4</v>
+      </c>
+      <c r="W14" t="n">
+        <v>80</v>
+      </c>
+      <c r="X14" t="n">
+        <v>83</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>84.25</v>
+      </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
+      <c r="AH14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>84.33333333333333</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>80</v>
+      </c>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
+      <c r="AQ14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>81.625</v>
+      </c>
       <c r="AT14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU14" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>81</v>
       </c>
       <c r="AV14" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW14" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80.75</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>83.33333333333333</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -1803,75 +2775,144 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>90.33333333333333</v>
+        <v>85</v>
       </c>
       <c r="F15" t="n">
-        <v>83</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+        <v>86.25</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>80</v>
+      </c>
+      <c r="I15" t="n">
+        <v>82.8125</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>79.8125</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>78</v>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
+      <c r="V15" t="n">
+        <v>4</v>
+      </c>
+      <c r="W15" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>81</v>
+      </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
+      <c r="AH15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>87.66666666666667</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>80</v>
+      </c>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
+      <c r="AQ15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>74.875</v>
+      </c>
       <c r="AT15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU15" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>81</v>
       </c>
       <c r="AV15" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW15" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80.75</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4</v>
       </c>
       <c r="AX15" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY15" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>79.66666666666667</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>80.25</v>
+      </c>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -1888,75 +2929,144 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>90.33333333333333</v>
+        <v>80</v>
       </c>
       <c r="F16" t="n">
-        <v>83</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+        <v>81.25</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>78.75</v>
+      </c>
+      <c r="I16" t="n">
+        <v>76.25</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>81</v>
+      </c>
+      <c r="O16" t="n">
+        <v>82.25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>74.25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>75.75</v>
+      </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
+      <c r="V16" t="n">
+        <v>4</v>
+      </c>
+      <c r="W16" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>83</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>81</v>
+      </c>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
+      <c r="AH16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>84.33333333333333</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>80</v>
+      </c>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
+      <c r="AQ16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>77.6875</v>
+      </c>
       <c r="AT16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU16" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>81</v>
       </c>
       <c r="AV16" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW16" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80.75</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY16" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>80</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>80.25</v>
+      </c>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -1973,75 +3083,144 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>90.33333333333333</v>
+        <v>89.66666666666667</v>
       </c>
       <c r="F17" t="n">
-        <v>83</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+        <v>90.75</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="I17" t="n">
+        <v>77.1875</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>79.3125</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="R17" t="n">
+        <v>79.25</v>
+      </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
+      <c r="V17" t="n">
+        <v>4</v>
+      </c>
+      <c r="W17" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>83.875</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>84</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>82.75</v>
+      </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
+      <c r="AH17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>89.33333333333333</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>80</v>
+      </c>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
+      <c r="AQ17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>86.25</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>85</v>
+      </c>
       <c r="AT17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU17" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>90</v>
       </c>
       <c r="AV17" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW17" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>87.5</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4</v>
       </c>
       <c r="AX17" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY17" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>83.66666666666667</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -2058,75 +3237,144 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>90.33333333333333</v>
+        <v>89.66666666666667</v>
       </c>
       <c r="F18" t="n">
-        <v>83</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+        <v>90.75</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="I18" t="n">
+        <v>77.1875</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>78.75</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>74.75</v>
+      </c>
+      <c r="R18" t="n">
+        <v>75.75</v>
+      </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
+      <c r="V18" t="n">
+        <v>4</v>
+      </c>
+      <c r="W18" t="n">
+        <v>80</v>
+      </c>
+      <c r="X18" t="n">
+        <v>82.625</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>87</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>84.75</v>
+      </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
+      <c r="AH18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>87</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>80</v>
+      </c>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
+      <c r="AQ18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>86.25</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>84.75</v>
+      </c>
       <c r="AT18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU18" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>80</v>
       </c>
       <c r="AV18" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW18" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY18" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>81.33333333333333</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>84</v>
+      </c>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -2143,75 +3391,144 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>90.33333333333333</v>
+        <v>89.66666666666667</v>
       </c>
       <c r="F19" t="n">
-        <v>83</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+        <v>90.75</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="I19" t="n">
+        <v>79.625</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>80.25</v>
+      </c>
+      <c r="O19" t="n">
+        <v>80.625</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>75.75</v>
+      </c>
+      <c r="R19" t="n">
+        <v>76.125</v>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
+      <c r="V19" t="n">
+        <v>4</v>
+      </c>
+      <c r="W19" t="n">
+        <v>81</v>
+      </c>
+      <c r="X19" t="n">
+        <v>82.625</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>82.75</v>
+      </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
+      <c r="AH19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>88.66666666666667</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>80</v>
+      </c>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
+      <c r="AQ19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>81.75</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>81.875</v>
+      </c>
       <c r="AT19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU19" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>85</v>
       </c>
       <c r="AV19" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW19" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>83.75</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4</v>
       </c>
       <c r="AX19" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY19" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>81.33333333333333</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr"/>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -2228,75 +3545,144 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>90.33333333333333</v>
+        <v>89.66666666666667</v>
       </c>
       <c r="F20" t="n">
-        <v>83</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+        <v>90.75</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>80</v>
+      </c>
+      <c r="I20" t="n">
+        <v>79.0625</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>80.4375</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>76.875</v>
+      </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
+      <c r="V20" t="n">
+        <v>4</v>
+      </c>
+      <c r="W20" t="n">
+        <v>80</v>
+      </c>
+      <c r="X20" t="n">
+        <v>82.125</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>80.75</v>
+      </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
+      <c r="AH20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>84.33333333333333</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>80</v>
+      </c>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
+      <c r="AQ20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>79.3125</v>
+      </c>
       <c r="AT20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU20" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>80</v>
       </c>
       <c r="AV20" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW20" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>4</v>
       </c>
       <c r="AX20" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY20" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>80.33333333333333</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr"/>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -2313,75 +3699,144 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>90.33333333333333</v>
+        <v>85</v>
       </c>
       <c r="F21" t="n">
-        <v>83</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+        <v>86.25</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>78.75</v>
+      </c>
+      <c r="I21" t="n">
+        <v>79.625</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>79.3125</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>74.75</v>
+      </c>
+      <c r="R21" t="n">
+        <v>77.0625</v>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
+      <c r="V21" t="n">
+        <v>4</v>
+      </c>
+      <c r="W21" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>79.125</v>
+      </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
+      <c r="AH21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>85.33333333333333</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>80</v>
+      </c>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
+      <c r="AQ21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>80</v>
+      </c>
       <c r="AT21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU21" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>80</v>
       </c>
       <c r="AV21" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW21" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>4</v>
       </c>
       <c r="AX21" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY21" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>79</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="inlineStr"/>
+      <c r="BJ21" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr"/>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr"/>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -2398,75 +3853,144 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>90.33333333333333</v>
+        <v>89.66666666666667</v>
       </c>
       <c r="F22" t="n">
-        <v>83</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+        <v>90.75</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="I22" t="n">
+        <v>80.9375</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>79.8125</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>75.75</v>
+      </c>
+      <c r="R22" t="n">
+        <v>77.4375</v>
+      </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
+      <c r="V22" t="n">
+        <v>4</v>
+      </c>
+      <c r="W22" t="n">
+        <v>80</v>
+      </c>
+      <c r="X22" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>88</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>86.125</v>
+      </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
+      <c r="AH22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>89.33333333333333</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>80</v>
+      </c>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
+      <c r="AQ22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>87.125</v>
+      </c>
       <c r="AT22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU22" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>80</v>
       </c>
       <c r="AV22" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW22" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>4</v>
       </c>
       <c r="AX22" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY22" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>84.33333333333333</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>83.75</v>
+      </c>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="inlineStr"/>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr"/>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr"/>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -2483,75 +4007,144 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>90.33333333333333</v>
+        <v>89.66666666666667</v>
       </c>
       <c r="F23" t="n">
-        <v>83</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+        <v>90.75</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="I23" t="n">
+        <v>80.9375</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>80.1875</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>74.75</v>
+      </c>
+      <c r="R23" t="n">
+        <v>75.75</v>
+      </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
+      <c r="V23" t="n">
+        <v>4</v>
+      </c>
+      <c r="W23" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>80.25</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>80.75</v>
+      </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr"/>
+      <c r="AH23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>86</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>80</v>
+      </c>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
+      <c r="AQ23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>77.75</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>79.4375</v>
+      </c>
       <c r="AT23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU23" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>80</v>
       </c>
       <c r="AV23" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW23" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>4</v>
       </c>
       <c r="AX23" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY23" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>81</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>80.25</v>
+      </c>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="inlineStr"/>
+      <c r="BJ23" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM23" t="inlineStr"/>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -2568,75 +4161,144 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>90.33333333333333</v>
+        <v>89.66666666666667</v>
       </c>
       <c r="F24" t="n">
-        <v>83</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+        <v>90.75</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>80.5625</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>79.3125</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>79.625</v>
+      </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
+      <c r="V24" t="n">
+        <v>4</v>
+      </c>
+      <c r="W24" t="n">
+        <v>86</v>
+      </c>
+      <c r="X24" t="n">
+        <v>89.25</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>86.125</v>
+      </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr"/>
+      <c r="AH24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>84.33333333333333</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>80</v>
+      </c>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
+      <c r="AQ24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>86.25</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>85.9375</v>
+      </c>
       <c r="AT24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU24" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>90</v>
       </c>
       <c r="AV24" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX24" t="n">
         <v>83</v>
       </c>
-      <c r="AW24" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
-      </c>
-      <c r="AX24" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY24" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+      <c r="AY24" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="inlineStr"/>
+      <c r="BJ24" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK24" t="inlineStr"/>
+      <c r="BL24" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM24" t="inlineStr"/>
+      <c r="BN24" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -2653,75 +4315,144 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>90.33333333333333</v>
+        <v>89.66666666666667</v>
       </c>
       <c r="F25" t="n">
-        <v>83</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+        <v>90.75</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="I25" t="n">
+        <v>78.125</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>79.3125</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="R25" t="n">
+        <v>78.6875</v>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
+      <c r="V25" t="n">
+        <v>4</v>
+      </c>
+      <c r="W25" t="n">
+        <v>84</v>
+      </c>
+      <c r="X25" t="n">
+        <v>87.25</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>83.75</v>
+      </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
+      <c r="AH25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>85.33333333333333</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>80</v>
+      </c>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
+      <c r="AQ25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>87.25</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>86.6875</v>
+      </c>
       <c r="AT25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU25" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>87.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW25" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>85.625</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4</v>
       </c>
       <c r="AX25" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY25" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>85</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>83.25</v>
+      </c>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM25" t="inlineStr"/>
+      <c r="BN25" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -2738,75 +4469,144 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>90.33333333333333</v>
+        <v>85</v>
       </c>
       <c r="F26" t="n">
-        <v>83</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+        <v>86.25</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="I26" t="n">
+        <v>80</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>79.6875</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>75.9375</v>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
+      <c r="V26" t="n">
+        <v>4</v>
+      </c>
+      <c r="W26" t="n">
+        <v>82</v>
+      </c>
+      <c r="X26" t="n">
+        <v>83.75</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>80.75</v>
+      </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
+      <c r="AH26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>84.33333333333333</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>80</v>
+      </c>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
+      <c r="AQ26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>81.9375</v>
+      </c>
       <c r="AT26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU26" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>80</v>
       </c>
       <c r="AV26" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW26" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>4</v>
       </c>
       <c r="AX26" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY26" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>81.33333333333333</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>81.75</v>
+      </c>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="inlineStr"/>
+      <c r="BJ26" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK26" t="inlineStr"/>
+      <c r="BL26" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM26" t="inlineStr"/>
+      <c r="BN26" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -2823,75 +4623,144 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>90.33333333333333</v>
+        <v>85</v>
       </c>
       <c r="F27" t="n">
-        <v>83</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+        <v>86.25</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>80</v>
+      </c>
+      <c r="I27" t="n">
+        <v>77.75</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>76.75</v>
+      </c>
+      <c r="O27" t="n">
+        <v>79.8125</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>75.75</v>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
+      <c r="V27" t="n">
+        <v>4</v>
+      </c>
+      <c r="W27" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>82.75</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>80.75</v>
+      </c>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
+      <c r="AH27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>88.66666666666667</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>80</v>
+      </c>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
+      <c r="AQ27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>78.25</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>79.4375</v>
+      </c>
       <c r="AT27" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU27" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>80</v>
       </c>
       <c r="AV27" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW27" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>4</v>
       </c>
       <c r="AX27" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY27" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>81.33333333333333</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>83.25</v>
+      </c>
+      <c r="AZ27" t="inlineStr"/>
+      <c r="BA27" t="inlineStr"/>
+      <c r="BB27" t="inlineStr"/>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="inlineStr"/>
+      <c r="BJ27" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK27" t="inlineStr"/>
+      <c r="BL27" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM27" t="inlineStr"/>
+      <c r="BN27" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -2908,75 +4777,144 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>90.33333333333333</v>
+        <v>85</v>
       </c>
       <c r="F28" t="n">
-        <v>83</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+        <v>86.25</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="I28" t="n">
+        <v>80</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>78.25</v>
+      </c>
+      <c r="O28" t="n">
+        <v>79.25</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>75.75</v>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
+      <c r="V28" t="n">
+        <v>4</v>
+      </c>
+      <c r="W28" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>81.375</v>
+      </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
+      <c r="AH28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>88.66666666666667</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>80</v>
+      </c>
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
+      <c r="AQ28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>81.4375</v>
+      </c>
       <c r="AT28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU28" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>80</v>
       </c>
       <c r="AV28" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW28" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>4</v>
       </c>
       <c r="AX28" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY28" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>82</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>81.75</v>
+      </c>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr"/>
+      <c r="BI28" t="inlineStr"/>
+      <c r="BJ28" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK28" t="inlineStr"/>
+      <c r="BL28" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM28" t="inlineStr"/>
+      <c r="BN28" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -2993,75 +4931,144 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>90.33333333333333</v>
+        <v>89.66666666666667</v>
       </c>
       <c r="F29" t="n">
-        <v>83</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+        <v>90.75</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="I29" t="n">
+        <v>77.5625</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="n">
+        <v>78.75</v>
+      </c>
+      <c r="O29" t="n">
+        <v>80.9375</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="R29" t="n">
+        <v>75.75</v>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
+      <c r="V29" t="n">
+        <v>4</v>
+      </c>
+      <c r="W29" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>81.75</v>
+      </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
+      <c r="AH29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>89.33333333333333</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>80</v>
+      </c>
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
+      <c r="AQ29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>81</v>
+      </c>
       <c r="AT29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU29" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>83</v>
       </c>
       <c r="AV29" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW29" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>82.25</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>4</v>
       </c>
       <c r="AX29" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY29" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>54.66666666666666</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>82</v>
+      </c>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
+      <c r="BF29" t="inlineStr"/>
+      <c r="BG29" t="inlineStr"/>
+      <c r="BH29" t="inlineStr"/>
+      <c r="BI29" t="inlineStr"/>
+      <c r="BJ29" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK29" t="inlineStr"/>
+      <c r="BL29" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM29" t="inlineStr"/>
+      <c r="BN29" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -3078,75 +5085,144 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>90.33333333333333</v>
+        <v>89.66666666666667</v>
       </c>
       <c r="F30" t="n">
-        <v>83</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+        <v>90.75</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="I30" t="n">
+        <v>79.0625</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="n">
+        <v>77.75</v>
+      </c>
+      <c r="O30" t="n">
+        <v>80.9375</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="R30" t="n">
+        <v>75.75</v>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
+      <c r="V30" t="n">
+        <v>4</v>
+      </c>
+      <c r="W30" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>84</v>
+      </c>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
+      <c r="AH30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>89.33333333333333</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>80</v>
+      </c>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
+      <c r="AQ30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>82.25</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>82.1875</v>
+      </c>
       <c r="AT30" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU30" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>83</v>
       </c>
       <c r="AV30" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW30" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>82.25</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>4</v>
       </c>
       <c r="AX30" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY30" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>82.66666666666667</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>84.25</v>
+      </c>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="inlineStr"/>
+      <c r="BJ30" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK30" t="inlineStr"/>
+      <c r="BL30" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM30" t="inlineStr"/>
+      <c r="BN30" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>
@@ -3163,75 +5239,144 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>90.33333333333333</v>
+        <v>89.66666666666667</v>
       </c>
       <c r="F31" t="n">
-        <v>83</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+        <v>90.75</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="I31" t="n">
+        <v>81.875</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="n">
+        <v>77.25</v>
+      </c>
+      <c r="O31" t="n">
+        <v>78.75</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>77.4375</v>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
+      <c r="V31" t="n">
+        <v>4</v>
+      </c>
+      <c r="W31" t="n">
+        <v>80</v>
+      </c>
+      <c r="X31" t="n">
+        <v>80.375</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>86.5</v>
+      </c>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
+      <c r="AH31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>89.33333333333333</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>80</v>
+      </c>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
+      <c r="AQ31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>86</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>84.75</v>
+      </c>
       <c r="AT31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU31" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>80</v>
       </c>
       <c r="AV31" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW31" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>4</v>
       </c>
       <c r="AX31" t="n">
-        <v>90.33333333333333</v>
-      </c>
-      <c r="AY31" t="inlineStr">
-        <is>
-          <t>Amat Baik</t>
+        <v>84.66666666666667</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>84.75</v>
+      </c>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="inlineStr"/>
+      <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="inlineStr"/>
+      <c r="BE31" t="inlineStr"/>
+      <c r="BF31" t="inlineStr"/>
+      <c r="BG31" t="inlineStr"/>
+      <c r="BH31" t="inlineStr"/>
+      <c r="BI31" t="inlineStr"/>
+      <c r="BJ31" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="BK31" t="inlineStr"/>
+      <c r="BL31" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
+        </is>
+      </c>
+      <c r="BM31" t="inlineStr"/>
+      <c r="BN31" t="inlineStr">
+        <is>
+          <t>Sangat Kurang</t>
         </is>
       </c>
     </row>

--- a/nilai/Rekap_Nilai_VII.xlsx
+++ b/nilai/Rekap_Nilai_VII.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN32"/>
+  <dimension ref="A1:BN31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3400,94 +3400,6 @@
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>999999999</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Muhammad Rizal Murtadha</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
-      <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
-      <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="inlineStr"/>
-      <c r="AV32" t="inlineStr"/>
-      <c r="AW32" t="inlineStr"/>
-      <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="inlineStr"/>
-      <c r="AZ32" t="inlineStr"/>
-      <c r="BA32" t="inlineStr"/>
-      <c r="BB32" t="inlineStr"/>
-      <c r="BC32" t="inlineStr"/>
-      <c r="BD32" t="inlineStr"/>
-      <c r="BE32" t="inlineStr"/>
-      <c r="BF32" t="inlineStr"/>
-      <c r="BG32" t="inlineStr"/>
-      <c r="BH32" t="inlineStr"/>
-      <c r="BI32" t="inlineStr"/>
-      <c r="BJ32" t="inlineStr">
-        <is>
-          <t>Sangat Baik</t>
-        </is>
-      </c>
-      <c r="BK32" t="inlineStr"/>
-      <c r="BL32" t="inlineStr">
-        <is>
-          <t>Sangat Kurang</t>
-        </is>
-      </c>
-      <c r="BM32" t="inlineStr"/>
-      <c r="BN32" t="inlineStr">
-        <is>
-          <t>Sangat Kurang</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
